--- a/Lab1_creditPay/app/src/test/resources/excel/exampleDataFixedLength.xlsx
+++ b/Lab1_creditPay/app/src/test/resources/excel/exampleDataFixedLength.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Процентный период, дни</t>
   </si>
   <si>
-    <t xml:space="preserve">Дата предоставление кредита</t>
+    <t xml:space="preserve">Дата предоставления кредита</t>
   </si>
   <si>
     <t xml:space="preserve">22.09.2022</t>
@@ -47,7 +47,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +69,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -120,7 +126,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -130,6 +136,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -325,7 +335,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -354,7 +364,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -372,7 +382,7 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
@@ -380,71 +390,71 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
